--- a/data_created/IER-medicare-US-average.xlsx
+++ b/data_created/IER-medicare-US-average.xlsx
@@ -340,7 +340,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>3.77223659415742</v>
+        <v>3.48973919375905</v>
       </c>
     </row>
   </sheetData>
